--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2667874.897227354</v>
+        <v>-2670819.347711793</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12361306.72283896</v>
+        <v>12363290.26350014</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16139445.60174968</v>
+        <v>16140625.19959462</v>
       </c>
     </row>
     <row r="11">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.447628153898733</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>13.99145537648747</v>
       </c>
       <c r="I5" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.447628153898726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="E6" t="n">
-        <v>12.32367389561016</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>13.99145537648747</v>
+        <v>12.32367389561017</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1069,40 +1069,40 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>12.32367389561016</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>13.99145537648747</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
-        <v>12.32367389561017</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="S7" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>69.56693840343073</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>69.56693840343073</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>69.56693840343073</v>
+        <v>13.6532886895532</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4.98104092773403</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>49.6510137751944</v>
+        <v>46.25692815119369</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.62354557054736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>69.56693840343073</v>
+        <v>12.75612446635617</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.268026066500381</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>69.56693840343073</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="I9" t="n">
-        <v>60.0065332792414</v>
+        <v>59.01117904383619</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>69.56693840343073</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.56693840343073</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>69.56693840343073</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="J10" t="n">
-        <v>42.7627903004125</v>
+        <v>41.04924282582316</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>24.20668355180807</v>
       </c>
       <c r="R10" t="n">
-        <v>69.56693840343073</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>18.51176904532927</v>
+        <v>6.511377132561137</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.3237632402129</v>
       </c>
       <c r="H11" t="n">
-        <v>287.7711048920177</v>
+        <v>288.4838818227203</v>
       </c>
       <c r="I11" t="n">
-        <v>15.84078279939641</v>
+        <v>18.52398383646818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.9757146016301</v>
+        <v>95.56169329645593</v>
       </c>
       <c r="T11" t="n">
-        <v>200.9957216894126</v>
+        <v>201.3003896756595</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9417670757457</v>
+        <v>250.9473349658427</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>191.474467675751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>100.252495156309</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6422925208722</v>
+        <v>134.6795310688501</v>
       </c>
       <c r="H12" t="n">
-        <v>86.14730098022781</v>
+        <v>86.50694695675172</v>
       </c>
       <c r="I12" t="n">
-        <v>6.519689463347433</v>
+        <v>7.801806137149768</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>121.5091081200514</v>
+        <v>122.2007978160454</v>
       </c>
       <c r="T12" t="n">
-        <v>189.2768977899574</v>
+        <v>189.426995270623</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7636699334525</v>
+        <v>225.7661198379248</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7575829060398</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.34729557820086</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.46802104450991</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5505173803389</v>
+        <v>93.87400715997916</v>
       </c>
       <c r="T13" t="n">
-        <v>218.2695028823151</v>
+        <v>218.4028954952185</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9303772477409</v>
+        <v>286.1972077318135</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>410.1644063769638</v>
       </c>
       <c r="H14" t="n">
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605508</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.9303487751657</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067863</v>
+        <v>200.6028050067864</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>222.0700158904992</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>237.1826926123098</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>154.0729484499798</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
         <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>134.2533932965853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545713</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I18" t="n">
-        <v>4.86620090218895</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453014</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401418</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612657</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2090,10 +2090,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H22" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2327,10 +2327,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2722,7 +2722,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707168</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453027</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401418</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612644</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707192</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S31" t="n">
-        <v>152.238650242483</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,13 +3241,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3439,10 +3439,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453039</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,13 +3478,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612657</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3566,7 +3566,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262546</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,7 +3715,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612642</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3749,7 +3749,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894972</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
@@ -3800,7 +3800,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651969</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
         <v>338.1208983262551</v>
@@ -3913,10 +3913,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442994</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453059</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -4040,7 +4040,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262528</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.46316680504209</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="C5" t="n">
-        <v>50.46316680504209</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="D5" t="n">
-        <v>50.46316680504209</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="E5" t="n">
-        <v>50.46316680504209</v>
+        <v>36.33038359646888</v>
       </c>
       <c r="F5" t="n">
-        <v>43.51766605583862</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="G5" t="n">
-        <v>29.38488284726541</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="I5" t="n">
         <v>1.119316430118998</v>
       </c>
       <c r="J5" t="n">
-        <v>1.119316430118998</v>
+        <v>14.9708572528416</v>
       </c>
       <c r="K5" t="n">
         <v>14.9708572528416</v>
@@ -4577,10 +4577,10 @@
         <v>28.82239807556419</v>
       </c>
       <c r="N5" t="n">
-        <v>42.1142806832273</v>
+        <v>42.67393889828679</v>
       </c>
       <c r="O5" t="n">
-        <v>42.1142806832273</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="P5" t="n">
         <v>55.9658215059499</v>
@@ -4610,7 +4610,7 @@
         <v>55.9658215059499</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.46316680504209</v>
+        <v>55.9658215059499</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.56747188023027</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="C6" t="n">
-        <v>13.56747188023027</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="D6" t="n">
-        <v>13.56747188023027</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="E6" t="n">
         <v>1.119316430118998</v>
@@ -4674,22 +4674,22 @@
         <v>41.83303829737669</v>
       </c>
       <c r="T6" t="n">
-        <v>27.70025508880348</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="U6" t="n">
-        <v>13.56747188023027</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="V6" t="n">
-        <v>13.56747188023027</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="W6" t="n">
-        <v>13.56747188023027</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="X6" t="n">
-        <v>13.56747188023027</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.56747188023027</v>
+        <v>29.38488284726541</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="D7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="E7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="F7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="G7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="H7" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="I7" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="J7" t="n">
         <v>1.119316430118998</v>
       </c>
       <c r="K7" t="n">
-        <v>1.119316430118998</v>
+        <v>14.9708572528416</v>
       </c>
       <c r="L7" t="n">
-        <v>1.119316430118998</v>
+        <v>28.82239807556419</v>
       </c>
       <c r="M7" t="n">
-        <v>14.9708572528416</v>
+        <v>28.82239807556419</v>
       </c>
       <c r="N7" t="n">
         <v>28.82239807556419</v>
@@ -4744,31 +4744,31 @@
         <v>55.9658215059499</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.9658215059499</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="R7" t="n">
-        <v>43.51766605583862</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="S7" t="n">
-        <v>29.38488284726541</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="T7" t="n">
-        <v>29.38488284726541</v>
+        <v>27.70025508880348</v>
       </c>
       <c r="U7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="V7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="W7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="X7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.2520996386922</v>
+        <v>13.56747188023027</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>216.3742593250948</v>
+        <v>196.8918477171787</v>
       </c>
       <c r="C8" t="n">
-        <v>216.3742593250948</v>
+        <v>196.8918477171787</v>
       </c>
       <c r="D8" t="n">
-        <v>146.1046245741547</v>
+        <v>114.5891390797228</v>
       </c>
       <c r="E8" t="n">
-        <v>146.1046245741547</v>
+        <v>114.5891390797228</v>
       </c>
       <c r="F8" t="n">
-        <v>75.83498982321458</v>
+        <v>107.6436383305194</v>
       </c>
       <c r="G8" t="n">
-        <v>5.565355072274458</v>
+        <v>93.85243763400096</v>
       </c>
       <c r="H8" t="n">
-        <v>5.565355072274458</v>
+        <v>88.82108316154235</v>
       </c>
       <c r="I8" t="n">
-        <v>5.565355072274458</v>
+        <v>6.518374524086503</v>
       </c>
       <c r="J8" t="n">
-        <v>5.565355072274458</v>
+        <v>6.518374524086503</v>
       </c>
       <c r="K8" t="n">
-        <v>74.43662409167088</v>
+        <v>50.69003068249012</v>
       </c>
       <c r="L8" t="n">
-        <v>135.937688603836</v>
+        <v>74.97372144978073</v>
       </c>
       <c r="M8" t="n">
-        <v>185.2347455606894</v>
+        <v>133.6634438387805</v>
       </c>
       <c r="N8" t="n">
-        <v>239.943288816424</v>
+        <v>197.9166356730829</v>
       </c>
       <c r="O8" t="n">
-        <v>278.2677536137229</v>
+        <v>245.2538414687547</v>
       </c>
       <c r="P8" t="n">
-        <v>278.2677536137229</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="Q8" t="n">
-        <v>278.2677536137229</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="R8" t="n">
-        <v>228.1152144468599</v>
+        <v>279.1945563546345</v>
       </c>
       <c r="S8" t="n">
-        <v>228.1152144468599</v>
+        <v>279.1945563546345</v>
       </c>
       <c r="T8" t="n">
-        <v>228.1152144468599</v>
+        <v>279.1945563546345</v>
       </c>
       <c r="U8" t="n">
-        <v>228.1152144468599</v>
+        <v>196.8918477171787</v>
       </c>
       <c r="V8" t="n">
-        <v>228.1152144468599</v>
+        <v>196.8918477171787</v>
       </c>
       <c r="W8" t="n">
-        <v>228.1152144468599</v>
+        <v>196.8918477171787</v>
       </c>
       <c r="X8" t="n">
-        <v>228.1152144468599</v>
+        <v>196.8918477171787</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.3742593250948</v>
+        <v>196.8918477171787</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>207.9981188627828</v>
+        <v>243.6160175668693</v>
       </c>
       <c r="C9" t="n">
-        <v>207.9981188627828</v>
+        <v>243.6160175668693</v>
       </c>
       <c r="D9" t="n">
-        <v>137.7284841118426</v>
+        <v>230.7310433584287</v>
       </c>
       <c r="E9" t="n">
-        <v>137.7284841118426</v>
+        <v>230.7310433584287</v>
       </c>
       <c r="F9" t="n">
-        <v>136.4476497012362</v>
+        <v>230.7310433584287</v>
       </c>
       <c r="G9" t="n">
-        <v>66.17801495029607</v>
+        <v>148.4283347209729</v>
       </c>
       <c r="H9" t="n">
-        <v>66.17801495029607</v>
+        <v>66.12562608351701</v>
       </c>
       <c r="I9" t="n">
-        <v>5.565355072274458</v>
+        <v>6.518374524086503</v>
       </c>
       <c r="J9" t="n">
-        <v>5.565355072274458</v>
+        <v>6.518374524086503</v>
       </c>
       <c r="K9" t="n">
-        <v>5.565355072274459</v>
+        <v>11.13996653887173</v>
       </c>
       <c r="L9" t="n">
-        <v>51.88789622742866</v>
+        <v>63.67680849778367</v>
       </c>
       <c r="M9" t="n">
-        <v>120.7591652468251</v>
+        <v>144.3416932333543</v>
       </c>
       <c r="N9" t="n">
-        <v>189.6304342662215</v>
+        <v>225.0065779689248</v>
       </c>
       <c r="O9" t="n">
-        <v>249.5278572568952</v>
+        <v>291.7135590992094</v>
       </c>
       <c r="P9" t="n">
-        <v>278.2677536137229</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="Q9" t="n">
-        <v>278.2677536137229</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="R9" t="n">
-        <v>278.2677536137229</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="S9" t="n">
-        <v>207.9981188627828</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="T9" t="n">
-        <v>207.9981188627828</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9981188627828</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="V9" t="n">
-        <v>207.9981188627828</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="W9" t="n">
-        <v>207.9981188627828</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="X9" t="n">
-        <v>207.9981188627828</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="Y9" t="n">
-        <v>207.9981188627828</v>
+        <v>325.9187262043251</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.2993622513391</v>
+        <v>130.284964803788</v>
       </c>
       <c r="C10" t="n">
-        <v>189.2993622513391</v>
+        <v>130.284964803788</v>
       </c>
       <c r="D10" t="n">
-        <v>189.2993622513391</v>
+        <v>130.284964803788</v>
       </c>
       <c r="E10" t="n">
-        <v>119.0297275003989</v>
+        <v>130.284964803788</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0297275003989</v>
+        <v>130.284964803788</v>
       </c>
       <c r="G10" t="n">
-        <v>48.76009274945881</v>
+        <v>130.284964803788</v>
       </c>
       <c r="H10" t="n">
-        <v>48.76009274945881</v>
+        <v>130.284964803788</v>
       </c>
       <c r="I10" t="n">
-        <v>48.76009274945881</v>
+        <v>47.98225616633212</v>
       </c>
       <c r="J10" t="n">
-        <v>5.565355072274458</v>
+        <v>6.518374524086503</v>
       </c>
       <c r="K10" t="n">
-        <v>5.565355072274458</v>
+        <v>69.573260603641</v>
       </c>
       <c r="L10" t="n">
-        <v>71.65394655553361</v>
+        <v>150.2381453392115</v>
       </c>
       <c r="M10" t="n">
-        <v>140.52521557493</v>
+        <v>164.5889567331842</v>
       </c>
       <c r="N10" t="n">
-        <v>209.3964845943265</v>
+        <v>245.2538414687547</v>
       </c>
       <c r="O10" t="n">
-        <v>278.2677536137229</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="P10" t="n">
-        <v>278.2677536137229</v>
+        <v>325.9187262043251</v>
       </c>
       <c r="Q10" t="n">
-        <v>278.2677536137229</v>
+        <v>301.4675306974483</v>
       </c>
       <c r="R10" t="n">
-        <v>207.9981188627828</v>
+        <v>301.4675306974483</v>
       </c>
       <c r="S10" t="n">
-        <v>207.9981188627828</v>
+        <v>219.1648220599924</v>
       </c>
       <c r="T10" t="n">
-        <v>207.9981188627828</v>
+        <v>136.8621134225366</v>
       </c>
       <c r="U10" t="n">
-        <v>207.9981188627828</v>
+        <v>136.8621134225366</v>
       </c>
       <c r="V10" t="n">
-        <v>189.2993622513391</v>
+        <v>130.284964803788</v>
       </c>
       <c r="W10" t="n">
-        <v>189.2993622513391</v>
+        <v>130.284964803788</v>
       </c>
       <c r="X10" t="n">
-        <v>189.2993622513391</v>
+        <v>130.284964803788</v>
       </c>
       <c r="Y10" t="n">
-        <v>189.2993622513391</v>
+        <v>130.284964803788</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1913.472575868163</v>
+        <v>2329.674044263009</v>
       </c>
       <c r="C11" t="n">
-        <v>1544.510058927751</v>
+        <v>1960.711527322597</v>
       </c>
       <c r="D11" t="n">
-        <v>1186.244360321001</v>
+        <v>1602.445828715847</v>
       </c>
       <c r="E11" t="n">
-        <v>800.4561077227563</v>
+        <v>1216.657576117603</v>
       </c>
       <c r="F11" t="n">
-        <v>389.4702029331488</v>
+        <v>805.6716713279949</v>
       </c>
       <c r="G11" t="n">
-        <v>389.4702029331488</v>
+        <v>391.2032236106081</v>
       </c>
       <c r="H11" t="n">
-        <v>98.79231920383796</v>
+        <v>99.80536318361786</v>
       </c>
       <c r="I11" t="n">
-        <v>82.79152849737694</v>
+        <v>81.09426839930657</v>
       </c>
       <c r="J11" t="n">
-        <v>327.762484140992</v>
+        <v>320.2171986054025</v>
       </c>
       <c r="K11" t="n">
-        <v>745.648962727493</v>
+        <v>729.3390030052689</v>
       </c>
       <c r="L11" t="n">
-        <v>1300.975853322118</v>
+        <v>1273.792540245868</v>
       </c>
       <c r="M11" t="n">
-        <v>1950.553456589286</v>
+        <v>1911.271442835784</v>
       </c>
       <c r="N11" t="n">
-        <v>2615.255712968625</v>
+        <v>2563.679228912112</v>
       </c>
       <c r="O11" t="n">
-        <v>3229.579943683314</v>
+        <v>3166.394139949799</v>
       </c>
       <c r="P11" t="n">
-        <v>3719.390460845952</v>
+        <v>3646.296371359221</v>
       </c>
       <c r="Q11" t="n">
-        <v>4039.045013978922</v>
+        <v>3958.510214532209</v>
       </c>
       <c r="R11" t="n">
-        <v>4139.576424868847</v>
+        <v>4054.713419965329</v>
       </c>
       <c r="S11" t="n">
-        <v>4044.651460624777</v>
+        <v>3958.186457039616</v>
       </c>
       <c r="T11" t="n">
-        <v>3841.625479120319</v>
+        <v>3754.852730094505</v>
       </c>
       <c r="U11" t="n">
-        <v>3588.148946720576</v>
+        <v>3501.37057356335</v>
       </c>
       <c r="V11" t="n">
-        <v>3257.086059377005</v>
+        <v>3170.307686219779</v>
       </c>
       <c r="W11" t="n">
-        <v>3063.677506169176</v>
+        <v>2817.539030949665</v>
       </c>
       <c r="X11" t="n">
-        <v>2690.211747908096</v>
+        <v>2716.273884327131</v>
       </c>
       <c r="Y11" t="n">
-        <v>2300.072415932284</v>
+        <v>2716.273884327131</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5563167460504</v>
+        <v>941.5550174543479</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1032874649234</v>
+        <v>767.1019881732209</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1688778036721</v>
+        <v>618.1675785119696</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9314227982167</v>
+        <v>458.9301235065142</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3968648251016</v>
+        <v>312.3955655333991</v>
       </c>
       <c r="G12" t="n">
-        <v>176.3945491474529</v>
+        <v>176.3556351608232</v>
       </c>
       <c r="H12" t="n">
-        <v>89.3770734098491</v>
+        <v>88.97488065905381</v>
       </c>
       <c r="I12" t="n">
-        <v>82.79152849737694</v>
+        <v>81.09426839930657</v>
       </c>
       <c r="J12" t="n">
-        <v>209.8767045026677</v>
+        <v>204.6964005169957</v>
       </c>
       <c r="K12" t="n">
-        <v>505.2403368496521</v>
+        <v>494.1069560890008</v>
       </c>
       <c r="L12" t="n">
-        <v>505.2403368496521</v>
+        <v>929.5777046915873</v>
       </c>
       <c r="M12" t="n">
-        <v>1042.1120735827</v>
+        <v>929.5777046915873</v>
       </c>
       <c r="N12" t="n">
-        <v>1607.601852591109</v>
+        <v>1482.692400596326</v>
       </c>
       <c r="O12" t="n">
-        <v>1975.940762780126</v>
+        <v>1969.013877912843</v>
       </c>
       <c r="P12" t="n">
-        <v>2353.963377042351</v>
+        <v>2339.996672074868</v>
       </c>
       <c r="Q12" t="n">
-        <v>2556.7422872354</v>
+        <v>2538.069648963764</v>
       </c>
       <c r="R12" t="n">
-        <v>2556.7422872354</v>
+        <v>2557.593752672113</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.005814386863</v>
+        <v>2434.158603362976</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.817028740441</v>
+        <v>2242.81820409972</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.772917696549</v>
+        <v>2014.771618404847</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.620809464807</v>
+        <v>1779.619510173104</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.383452736605</v>
+        <v>1525.382153444903</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.531952531072</v>
+        <v>1317.53065323937</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.771653766118</v>
+        <v>1109.770354474416</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.9870359131448</v>
+        <v>715.4920862472351</v>
       </c>
       <c r="C13" t="n">
-        <v>469.050852985238</v>
+        <v>546.5559033193282</v>
       </c>
       <c r="D13" t="n">
-        <v>318.9342135729023</v>
+        <v>396.4392639069924</v>
       </c>
       <c r="E13" t="n">
-        <v>171.0211199905091</v>
+        <v>248.5261703245993</v>
       </c>
       <c r="F13" t="n">
-        <v>171.0211199905091</v>
+        <v>248.5261703245993</v>
       </c>
       <c r="G13" t="n">
-        <v>171.0211199905091</v>
+        <v>81.09426839930657</v>
       </c>
       <c r="H13" t="n">
-        <v>171.0211199905091</v>
+        <v>81.09426839930657</v>
       </c>
       <c r="I13" t="n">
-        <v>82.79152849737694</v>
+        <v>81.09426839930657</v>
       </c>
       <c r="J13" t="n">
-        <v>148.8732078782564</v>
+        <v>144.9907979779629</v>
       </c>
       <c r="K13" t="n">
-        <v>387.3025433044123</v>
+        <v>379.829261027571</v>
       </c>
       <c r="L13" t="n">
-        <v>747.9364389057589</v>
+        <v>735.8680762810254</v>
       </c>
       <c r="M13" t="n">
-        <v>1138.563440308573</v>
+        <v>1121.650209734793</v>
       </c>
       <c r="N13" t="n">
-        <v>1525.33682113416</v>
+        <v>1503.69392274235</v>
       </c>
       <c r="O13" t="n">
-        <v>1866.568343897824</v>
+        <v>1840.556831757143</v>
       </c>
       <c r="P13" t="n">
-        <v>2135.030178960413</v>
+        <v>2105.280563056228</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.464157935167</v>
+        <v>2205.126472746133</v>
       </c>
       <c r="R13" t="n">
-        <v>2161.233833647784</v>
+        <v>2205.126472746133</v>
       </c>
       <c r="S13" t="n">
-        <v>1974.819169627239</v>
+        <v>2110.304243291608</v>
       </c>
       <c r="T13" t="n">
-        <v>1754.344924291567</v>
+        <v>1889.695257942903</v>
       </c>
       <c r="U13" t="n">
-        <v>1523.102118990819</v>
+        <v>1600.607169324909</v>
       </c>
       <c r="V13" t="n">
-        <v>1268.417630784932</v>
+        <v>1345.922681119022</v>
       </c>
       <c r="W13" t="n">
-        <v>1268.417630784932</v>
+        <v>1345.922681119022</v>
       </c>
       <c r="X13" t="n">
-        <v>1040.428079886915</v>
+        <v>1117.933130221005</v>
       </c>
       <c r="Y13" t="n">
-        <v>819.6355007433846</v>
+        <v>897.1405510774748</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>2325.545057758604</v>
       </c>
       <c r="C14" t="n">
         <v>1956.582540818192</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211441</v>
+        <v>1598.316842211442</v>
       </c>
       <c r="E14" t="n">
         <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>801.5426848235898</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347373</v>
+        <v>387.2352036347374</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810105</v>
+        <v>97.48584166810114</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
         <v>2001.213713746739</v>
@@ -5291,37 +5291,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.16151059908</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632629</v>
+        <v>4046.39135278936</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423758</v>
+        <v>4046.39135278936</v>
       </c>
       <c r="V14" t="n">
-        <v>3475.749988059617</v>
+        <v>3715.328465445789</v>
       </c>
       <c r="W14" t="n">
         <v>3475.749988059617</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>3102.284229798538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2712.144897822726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J15" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.0092031464278</v>
+        <v>409.5458327615886</v>
       </c>
       <c r="C16" t="n">
-        <v>760.0730202185209</v>
+        <v>240.6096498336817</v>
       </c>
       <c r="D16" t="n">
-        <v>609.9563808061852</v>
+        <v>240.6096498336817</v>
       </c>
       <c r="E16" t="n">
-        <v>462.043287223792</v>
+        <v>240.6096498336817</v>
       </c>
       <c r="F16" t="n">
-        <v>315.1533397258817</v>
+        <v>240.6096498336817</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258817</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869778</v>
+        <v>396.9405013869775</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042035</v>
+        <v>763.5004667042031</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711515</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.168624967671</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.76693339754</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="S16" t="n">
-        <v>2204.76693339754</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="T16" t="n">
-        <v>1984.466456233544</v>
+        <v>1873.162236091859</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.466456233544</v>
+        <v>1584.078085876223</v>
       </c>
       <c r="V16" t="n">
-        <v>1848.856968055175</v>
+        <v>1329.393597670336</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.439798018215</v>
+        <v>1039.976427633376</v>
       </c>
       <c r="X16" t="n">
-        <v>1331.450247120197</v>
+        <v>811.9868767353585</v>
       </c>
       <c r="Y16" t="n">
-        <v>1110.657667976667</v>
+        <v>591.1942975918283</v>
       </c>
     </row>
     <row r="17">
@@ -5498,67 +5498,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177175</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835861</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334507</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277783</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277783</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760352</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5650,25 +5650,25 @@
         <v>872.8624197502103</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
@@ -5677,40 +5677,40 @@
         <v>459.5287020443614</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902791</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073043</v>
@@ -5735,31 +5735,31 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951448</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889755</v>
@@ -5768,34 +5768,34 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
         <v>216.5575109835859</v>
@@ -5835,22 +5835,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
@@ -5917,40 +5917,40 @@
         <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162833</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511572</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6002,37 +6002,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
@@ -6072,19 +6072,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.315654538067</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443611</v>
@@ -6154,31 +6154,31 @@
         <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357083</v>
@@ -6187,7 +6187,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6224,10 +6224,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6239,13 +6239,13 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755811</v>
@@ -6254,22 +6254,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>875.4343898857002</v>
       </c>
       <c r="N27" t="n">
-        <v>1959.694692760353</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O27" t="n">
         <v>1959.694692760353</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6403,7 +6403,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
         <v>2487.049233352542</v>
@@ -6415,16 +6415,16 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6443,16 +6443,16 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6464,7 +6464,7 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6476,13 +6476,13 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755811</v>
@@ -6549,19 +6549,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,64 +6595,64 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502115</v>
       </c>
       <c r="C31" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477733</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609063</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039819</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357084</v>
@@ -6661,10 +6661,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6698,16 +6698,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889756</v>
@@ -6716,10 +6716,10 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755811</v>
@@ -6743,7 +6743,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6789,10 +6789,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749443</v>
@@ -6859,7 +6859,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902788</v>
@@ -6889,7 +6889,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796655</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162819</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511424</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050962</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7023,16 +7023,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749446</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,10 +7108,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7157,10 +7157,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
@@ -7172,22 +7172,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612703</v>
@@ -7214,10 +7214,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1390.738552529597</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N39" t="n">
-        <v>1934.929714729833</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749443</v>
@@ -7330,49 +7330,49 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7397,55 +7397,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
@@ -7482,10 +7482,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
@@ -7497,16 +7497,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2057.65749280243</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2444.759048354586</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749448</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897936</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
@@ -7576,13 +7576,13 @@
         <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
         <v>2392.455631028688</v>
@@ -7600,19 +7600,19 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7634,58 +7634,58 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
         <v>2834.342818501803</v>
@@ -7719,25 +7719,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334502</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277776</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N45" t="n">
-        <v>1934.929714729833</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O45" t="n">
         <v>1934.929714729833</v>
@@ -7801,10 +7801,10 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443611</v>
@@ -7816,37 +7816,37 @@
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7985,7 +7985,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M2" t="n">
-        <v>20.92686739226636</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N2" t="n">
         <v>16.60507348116786</v>
@@ -7997,7 +7997,7 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.51262335026308</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>66.54876907979121</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K3" t="n">
-        <v>34.79817869043559</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.12044141380176</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q3" t="n">
         <v>58.52562482607891</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>66.85797092510069</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L4" t="n">
         <v>55.34730792350439</v>
@@ -8152,7 +8152,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P4" t="n">
-        <v>73.02425275703001</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.75247211164648</v>
+        <v>83.74392748813396</v>
       </c>
       <c r="K5" t="n">
-        <v>67.2813010774763</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L5" t="n">
         <v>28.8362588753597</v>
@@ -8225,13 +8225,13 @@
         <v>14.08801877595884</v>
       </c>
       <c r="N5" t="n">
-        <v>8.863857440501675</v>
+        <v>9.429168768844599</v>
       </c>
       <c r="O5" t="n">
-        <v>9.161922983629779</v>
+        <v>22.58806703177433</v>
       </c>
       <c r="P5" t="n">
-        <v>56.66044049156213</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q5" t="n">
         <v>80.70197082457096</v>
@@ -8374,16 +8374,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>60.67557455063191</v>
+        <v>74.66702992711939</v>
       </c>
       <c r="L7" t="n">
-        <v>47.4359690887577</v>
+        <v>61.42742446524517</v>
       </c>
       <c r="M7" t="n">
-        <v>60.7148388031226</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N7" t="n">
-        <v>51.66696632264114</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O7" t="n">
         <v>68.74384799902803</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45.63689302957769</v>
+        <v>41.05099726645861</v>
       </c>
       <c r="K8" t="n">
-        <v>86.71378237937844</v>
+        <v>54.89160950131109</v>
       </c>
       <c r="L8" t="n">
-        <v>46.11995663863866</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.810057396252944</v>
+        <v>75.5198743766486</v>
       </c>
       <c r="Q8" t="n">
-        <v>50.01861771953253</v>
+        <v>44.18377301089734</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>46.18894706358475</v>
+        <v>43.45761896360213</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.01751192697148</v>
+        <v>27.32722024961694</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>45.86784710562524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>95.24332909466729</v>
+        <v>106.363494458968</v>
       </c>
       <c r="M10" t="n">
-        <v>96.31147642050013</v>
+        <v>37.4410658643509</v>
       </c>
       <c r="N10" t="n">
-        <v>87.73865622894297</v>
+        <v>95.94249560396109</v>
       </c>
       <c r="O10" t="n">
-        <v>106.8697326270088</v>
+        <v>115.3567028371622</v>
       </c>
       <c r="P10" t="n">
-        <v>51.17350101256199</v>
+        <v>48.24216044397042</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.90661945456828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>164.496149114352</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>181.8424978167795</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8750126833486</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>300.851657189762</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>55.53588833985387</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>153.2386143258456</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.6597533558751</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.254164614</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>157.766501041662</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>269.4786055221601</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7263633583389</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0926775245562</v>
+        <v>142.3702476850235</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.28615252178537</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>76.87176543476656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>91.22058179256399</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.26512759965257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.9303487751658</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>105.6822425796357</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>112.0582761051033</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>11.61315245326233</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674408</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.8842500272427</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1.806776963043556e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1229771.16659619</v>
+        <v>1243206.401244719</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1434643.566076493</v>
+        <v>1434306.364164093</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1315674.214725458</v>
+        <v>1302238.98007693</v>
       </c>
     </row>
     <row r="6">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17459.60206031798</v>
+        <v>17654.31560594882</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18722.75264741623</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19168.57954878276</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="H2" t="n">
         <v>20526.04424660706</v>
       </c>
-      <c r="D2" t="n">
+      <c r="I2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="E2" t="n">
-        <v>18917.46619304707</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19168.57954878277</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20526.04424660707</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20526.04424660707</v>
-      </c>
       <c r="J2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
@@ -26347,13 +26347,13 @@
         <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>31391.26607460347</v>
       </c>
       <c r="D3" t="n">
-        <v>77793.47885113859</v>
+        <v>93004.52559636635</v>
       </c>
       <c r="E3" t="n">
-        <v>978326.5914650488</v>
+        <v>943728.0107443167</v>
       </c>
       <c r="F3" t="n">
-        <v>25488.1908285035</v>
+        <v>45251.75933083678</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177112</v>
+        <v>25288.16188177124</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3600.952887335828</v>
+        <v>3600.952887335826</v>
       </c>
       <c r="L3" t="n">
-        <v>39353.81645654325</v>
+        <v>42368.82453252533</v>
       </c>
       <c r="M3" t="n">
-        <v>240563.3915278654</v>
+        <v>232307.6382160043</v>
       </c>
       <c r="N3" t="n">
-        <v>6701.449109640786</v>
+        <v>11897.75941014165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288095.7241971545</v>
+        <v>292541.1674376836</v>
       </c>
       <c r="C4" t="n">
         <v>349184.4550287492</v>
       </c>
       <c r="D4" t="n">
-        <v>325072.7453197592</v>
+        <v>320372.4957487921</v>
       </c>
       <c r="E4" t="n">
-        <v>11095.60457646403</v>
+        <v>11084.62382263672</v>
       </c>
       <c r="F4" t="n">
-        <v>11109.76596381461</v>
+        <v>11109.76596381457</v>
       </c>
       <c r="G4" t="n">
-        <v>42179.6510460346</v>
+        <v>42179.65104603474</v>
       </c>
       <c r="H4" t="n">
+        <v>42179.65104603473</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42179.65104603469</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42179.65104603465</v>
+      </c>
+      <c r="K4" t="n">
         <v>42179.6510460347</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>42179.65104603466</v>
+      </c>
+      <c r="M4" t="n">
         <v>42179.65104603468</v>
       </c>
-      <c r="J4" t="n">
-        <v>42179.65104603467</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42179.65104603466</v>
-      </c>
-      <c r="L4" t="n">
-        <v>42179.65104603468</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42179.65104603473</v>
-      </c>
       <c r="N4" t="n">
-        <v>42179.65104603466</v>
+        <v>42179.65104603469</v>
       </c>
       <c r="O4" t="n">
-        <v>42179.65104603476</v>
+        <v>42179.65104603465</v>
       </c>
       <c r="P4" t="n">
-        <v>42179.65104603475</v>
+        <v>42179.65104603465</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>41589.03570424159</v>
       </c>
       <c r="D5" t="n">
-        <v>46508.81661816157</v>
+        <v>47526.11325722972</v>
       </c>
       <c r="E5" t="n">
-        <v>90298.71035763662</v>
+        <v>88631.3767328073</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
@@ -26494,22 +26494,22 @@
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="O5" t="n">
-        <v>95106.43410215525</v>
-      </c>
       <c r="P5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-596608.5040064389</v>
+        <v>-601146.406565403</v>
       </c>
       <c r="C6" t="n">
-        <v>-401638.7125609873</v>
+        <v>-401638.7125609872</v>
       </c>
       <c r="D6" t="n">
-        <v>-428848.9965424523</v>
+        <v>-440377.0903557811</v>
       </c>
       <c r="E6" t="n">
-        <v>-1060803.440206102</v>
+        <v>-1024901.587812264</v>
       </c>
       <c r="F6" t="n">
-        <v>-109878.3732441423</v>
+        <v>-129777.688216258</v>
       </c>
       <c r="G6" t="n">
-        <v>-142048.2027833539</v>
+        <v>-142048.2027833542</v>
       </c>
       <c r="H6" t="n">
         <v>-116760.0409015829</v>
@@ -26543,19 +26543,19 @@
         <v>-116760.0409015829</v>
       </c>
       <c r="J6" t="n">
-        <v>-116760.0409015829</v>
+        <v>-116760.0409015828</v>
       </c>
       <c r="K6" t="n">
         <v>-120360.9937889187</v>
       </c>
       <c r="L6" t="n">
-        <v>-156113.8573581261</v>
+        <v>-159128.8654341082</v>
       </c>
       <c r="M6" t="n">
-        <v>-357323.4324294483</v>
+        <v>-349067.6791175872</v>
       </c>
       <c r="N6" t="n">
-        <v>-123461.4900112237</v>
+        <v>-128657.8003117246</v>
       </c>
       <c r="O6" t="n">
         <v>-116760.0409015828</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221397</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="N2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>31.61020235221395</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>326.1814319885848</v>
       </c>
       <c r="D3" t="n">
-        <v>396.8599432675681</v>
+        <v>410.3003953634856</v>
       </c>
       <c r="E3" t="n">
-        <v>1255.832509157347</v>
+        <v>1238.519850886895</v>
       </c>
       <c r="F3" t="n">
         <v>1278.159870620123</v>
@@ -26793,10 +26793,10 @@
         <v>13.99145537648747</v>
       </c>
       <c r="D4" t="n">
-        <v>69.56693840343073</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="E4" t="n">
-        <v>1034.894106217212</v>
+        <v>1013.678354991332</v>
       </c>
       <c r="F4" t="n">
         <v>1062.255112188953</v>
@@ -26820,16 +26820,16 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>29.50909067625952</v>
       </c>
       <c r="D3" t="n">
-        <v>70.67851127898331</v>
+        <v>84.11896337490077</v>
       </c>
       <c r="E3" t="n">
-        <v>858.9725658897785</v>
+        <v>828.219455523409</v>
       </c>
       <c r="F3" t="n">
-        <v>22.32736146277648</v>
+        <v>39.64001973322797</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>13.99145537648747</v>
       </c>
       <c r="D4" t="n">
-        <v>55.57548302694325</v>
+        <v>67.48822617459381</v>
       </c>
       <c r="E4" t="n">
-        <v>965.3271678137811</v>
+        <v>932.1986734402509</v>
       </c>
       <c r="F4" t="n">
-        <v>27.36100597174127</v>
+        <v>48.57675719762062</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,16 +27039,16 @@
         <v>13.99145537648747</v>
       </c>
       <c r="L4" t="n">
-        <v>55.57548302694325</v>
+        <v>67.48822617459382</v>
       </c>
       <c r="M4" t="n">
-        <v>965.3271678137806</v>
+        <v>932.1986734402509</v>
       </c>
       <c r="N4" t="n">
-        <v>27.36100597174173</v>
+        <v>48.57675719762074</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221405</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>13.99145537648747</v>
       </c>
       <c r="L4" t="n">
-        <v>55.57548302694325</v>
+        <v>67.48822617459381</v>
       </c>
       <c r="M4" t="n">
-        <v>965.3271678137811</v>
+        <v>932.1986734402509</v>
       </c>
       <c r="N4" t="n">
-        <v>27.36100597174127</v>
+        <v>48.57675719762062</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>331.3662723164393</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>327.2605483852552</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>74.95115227296735</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U2" t="n">
         <v>251.2502406975652</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>26.90060128037294</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.5380826090839</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S3" t="n">
         <v>159.8302714297086</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>139.362079762321</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>41.36451971353327</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S4" t="n">
         <v>214.6933049501571</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U4" t="n">
         <v>286.2898484704602</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>351.2814363945201</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.482741918363</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>312.0541785368552</v>
       </c>
       <c r="I5" t="n">
-        <v>145.9312295437077</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.7903105021549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>133.4536101881513</v>
       </c>
       <c r="E6" t="n">
-        <v>145.3214065597908</v>
+        <v>143.6536250789135</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27746,10 +27746,10 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T6" t="n">
-        <v>183.3453418466595</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U6" t="n">
-        <v>211.9037689546776</v>
+        <v>213.5715504355549</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27789,13 +27789,13 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H7" t="n">
-        <v>156.9975751224423</v>
+        <v>144.6739012268321</v>
       </c>
       <c r="I7" t="n">
         <v>137.761816287615</v>
       </c>
       <c r="J7" t="n">
-        <v>37.78226577993573</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.90864702141808</v>
+        <v>22.9171916449306</v>
       </c>
       <c r="R7" t="n">
-        <v>138.5222853075341</v>
+        <v>136.8545038266568</v>
       </c>
       <c r="S7" t="n">
-        <v>199.7744901174993</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T7" t="n">
         <v>225.4323882309924</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1161032172522</v>
+        <v>273.2033600696017</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>337.3091073382807</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>344.1403822543473</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.1357392253592</v>
+        <v>317.601343403043</v>
       </c>
       <c r="I8" t="n">
-        <v>148.9685811771479</v>
+        <v>65.40583217108028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>172.6645079492214</v>
+        <v>171.4332544732989</v>
       </c>
       <c r="T8" t="n">
-        <v>216.1119122710508</v>
+        <v>215.8753873301468</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2180195592479</v>
+        <v>169.7340154507087</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>374.6143930855062</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,25 +27929,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>85.05350209878605</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>77.87812716120803</v>
+        <v>134.6889410982826</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>143.8011863268835</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>66.92295548558174</v>
+        <v>54.98130268625317</v>
       </c>
       <c r="H9" t="n">
-        <v>103.9912405093721</v>
+        <v>22.23235258550579</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.15831191777807</v>
+        <v>45.36337757938366</v>
       </c>
       <c r="S9" t="n">
-        <v>86.26055477834907</v>
+        <v>155.2905090815325</v>
       </c>
       <c r="T9" t="n">
-        <v>196.7240278659264</v>
+        <v>196.6075016821891</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8852226550407</v>
+        <v>225.8833207042724</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>76.86702424313845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>97.70839187700454</v>
+        <v>167.2510933996066</v>
       </c>
       <c r="H10" t="n">
-        <v>155.8644016137399</v>
+        <v>155.6489137096447</v>
       </c>
       <c r="I10" t="n">
-        <v>133.9289553808793</v>
+        <v>51.72040472269487</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.2361918182916</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>75.54826806551924</v>
+        <v>144.0254281727794</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5447863772357</v>
+        <v>129.6427220938942</v>
       </c>
       <c r="T10" t="n">
-        <v>224.8878160949084</v>
+        <v>143.3045769621045</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2786719405535</v>
       </c>
       <c r="V10" t="n">
-        <v>233.6258742784987</v>
+        <v>245.6262661912669</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605488</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221298</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6102023522148</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221298</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221508</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I35" t="n">
-        <v>12.3803783660569</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221611</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221628</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I2" t="n">
-        <v>45.97974045605396</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J2" t="n">
         <v>101.2249010189225</v>
@@ -31057,7 +31057,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M2" t="n">
-        <v>209.4193658350064</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N2" t="n">
         <v>212.8079901154231</v>
@@ -31072,13 +31072,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R2" t="n">
-        <v>74.91796566818233</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S2" t="n">
-        <v>27.17757176946579</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T2" t="n">
-        <v>5.220836880782728</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U2" t="n">
         <v>0.09541221027130049</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H3" t="n">
         <v>6.162948071412645</v>
@@ -31209,7 +31209,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K4" t="n">
-        <v>62.15528724543469</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L4" t="n">
         <v>79.5373683577339</v>
@@ -31224,7 +31224,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P4" t="n">
-        <v>64.7037512921176</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q4" t="n">
         <v>44.79752353816112</v>
@@ -31233,7 +31233,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S4" t="n">
-        <v>9.323293086815202</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T4" t="n">
         <v>2.28583607240644</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.595416857357056</v>
+        <v>1.64944882558185</v>
       </c>
       <c r="H8" t="n">
-        <v>16.33906289040796</v>
+        <v>16.89241778499013</v>
       </c>
       <c r="I8" t="n">
-        <v>61.50730839325798</v>
+        <v>63.59037584824434</v>
       </c>
       <c r="J8" t="n">
-        <v>135.4090114971086</v>
+        <v>139.9949072602277</v>
       </c>
       <c r="K8" t="n">
-        <v>202.9430070690328</v>
+        <v>209.8160760471075</v>
       </c>
       <c r="L8" t="n">
-        <v>251.7687457173739</v>
+        <v>260.2953955430081</v>
       </c>
       <c r="M8" t="n">
-        <v>280.1412402543975</v>
+        <v>289.6287810949493</v>
       </c>
       <c r="N8" t="n">
-        <v>284.6742184003632</v>
+        <v>294.3152775706337</v>
       </c>
       <c r="O8" t="n">
-        <v>268.809792025019</v>
+        <v>277.9135708112542</v>
       </c>
       <c r="P8" t="n">
-        <v>229.4229383590166</v>
+        <v>237.1928029297022</v>
       </c>
       <c r="Q8" t="n">
-        <v>172.287072154917</v>
+        <v>178.1219168635521</v>
       </c>
       <c r="R8" t="n">
-        <v>100.2181041659553</v>
+        <v>103.612189789956</v>
       </c>
       <c r="S8" t="n">
-        <v>36.35556163702396</v>
+        <v>37.58681511294645</v>
       </c>
       <c r="T8" t="n">
-        <v>6.983937293080518</v>
+        <v>7.220462233984553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.131955906046548</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8536232741981654</v>
+        <v>0.8825329258761765</v>
       </c>
       <c r="H9" t="n">
-        <v>8.244203727124388</v>
+        <v>8.523410099909391</v>
       </c>
       <c r="I9" t="n">
-        <v>29.39009957217368</v>
+        <v>30.38545380757889</v>
       </c>
       <c r="J9" t="n">
-        <v>80.64867960308194</v>
+        <v>83.38000770306456</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>142.5097137367684</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3448253911411</v>
+        <v>191.6218969100883</v>
       </c>
       <c r="M9" t="n">
-        <v>211.700972325449</v>
+        <v>223.6137154730996</v>
       </c>
       <c r="N9" t="n">
-        <v>200.908650486764</v>
+        <v>212.8213936344146</v>
       </c>
       <c r="O9" t="n">
-        <v>203.0986919097714</v>
+        <v>209.977033464934</v>
       </c>
       <c r="P9" t="n">
-        <v>163.0046057545602</v>
+        <v>168.5250812578815</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.96426215905</v>
+        <v>112.6545538364046</v>
       </c>
       <c r="R9" t="n">
-        <v>52.99952223486506</v>
+        <v>54.79445657325947</v>
       </c>
       <c r="S9" t="n">
-        <v>15.85567792205802</v>
+        <v>16.39266202230528</v>
       </c>
       <c r="T9" t="n">
-        <v>3.440700828895235</v>
+        <v>3.557227012632482</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05615942593408985</v>
+        <v>0.05806137670238005</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.739885958852187</v>
       </c>
       <c r="H10" t="n">
-        <v>6.362770893699702</v>
+        <v>6.578258797794904</v>
       </c>
       <c r="I10" t="n">
-        <v>21.52151954637894</v>
+        <v>22.25038865348214</v>
       </c>
       <c r="J10" t="n">
-        <v>50.59638981626027</v>
+        <v>52.30993729084962</v>
       </c>
       <c r="K10" t="n">
-        <v>83.14541106491014</v>
+        <v>85.96129594664498</v>
       </c>
       <c r="L10" t="n">
-        <v>106.3975001999641</v>
+        <v>110.0008633733515</v>
       </c>
       <c r="M10" t="n">
-        <v>112.1812459305357</v>
+        <v>115.9804871680751</v>
       </c>
       <c r="N10" t="n">
-        <v>109.5138266397209</v>
+        <v>113.2227304123534</v>
       </c>
       <c r="O10" t="n">
-        <v>101.1537442282648</v>
+        <v>104.5795171657619</v>
       </c>
       <c r="P10" t="n">
-        <v>86.55450303658563</v>
+        <v>89.48584360517719</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.92585143340278</v>
+        <v>61.95535969988632</v>
       </c>
       <c r="R10" t="n">
-        <v>32.17818490821953</v>
+        <v>33.26796320439014</v>
       </c>
       <c r="S10" t="n">
-        <v>12.47181165973652</v>
+        <v>12.89419439199674</v>
       </c>
       <c r="T10" t="n">
-        <v>3.057773333373064</v>
+        <v>3.161330915095707</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03903540425582641</v>
+        <v>0.04035741593739207</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.048572901135057</v>
+        <v>4.978974274922185</v>
       </c>
       <c r="H11" t="n">
-        <v>51.70369722374942</v>
+        <v>50.99092029304685</v>
       </c>
       <c r="I11" t="n">
-        <v>194.6351067710095</v>
+        <v>191.9519057339377</v>
       </c>
       <c r="J11" t="n">
-        <v>428.491314267712</v>
+        <v>422.5842178661772</v>
       </c>
       <c r="K11" t="n">
-        <v>642.1974051727591</v>
+        <v>633.3441989236335</v>
       </c>
       <c r="L11" t="n">
-        <v>796.7026680958713</v>
+        <v>785.7194828897834</v>
       </c>
       <c r="M11" t="n">
-        <v>886.4852264264318</v>
+        <v>874.2643166514308</v>
       </c>
       <c r="N11" t="n">
-        <v>900.8294841817819</v>
+        <v>888.4108273100536</v>
       </c>
       <c r="O11" t="n">
-        <v>850.6277373961201</v>
+        <v>838.901151863796</v>
       </c>
       <c r="P11" t="n">
-        <v>725.9910938993482</v>
+        <v>715.9827244516545</v>
       </c>
       <c r="Q11" t="n">
-        <v>545.1890768774488</v>
+        <v>537.6732082310035</v>
       </c>
       <c r="R11" t="n">
-        <v>317.1324175009253</v>
+        <v>312.760492797081</v>
       </c>
       <c r="S11" t="n">
-        <v>115.0443549846152</v>
+        <v>113.4583762897894</v>
       </c>
       <c r="T11" t="n">
-        <v>22.10012787471873</v>
+        <v>21.79545988847188</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4038858320908045</v>
+        <v>0.3983179419937747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.701224642338444</v>
+        <v>2.66398609436049</v>
       </c>
       <c r="H12" t="n">
-        <v>26.08814325626865</v>
+        <v>25.72849727974474</v>
       </c>
       <c r="I12" t="n">
-        <v>93.00269053665257</v>
+        <v>91.72057386285023</v>
       </c>
       <c r="J12" t="n">
-        <v>255.2064913184755</v>
+        <v>251.688265169383</v>
       </c>
       <c r="K12" t="n">
-        <v>436.1885423551512</v>
+        <v>430.1753334915359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>578.4238228127898</v>
       </c>
       <c r="M12" t="n">
-        <v>684.4287174907538</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>702.5435090615235</v>
+        <v>690.0434251184233</v>
       </c>
       <c r="O12" t="n">
-        <v>514.6557496858762</v>
+        <v>633.8300599156732</v>
       </c>
       <c r="P12" t="n">
-        <v>515.8154319216279</v>
+        <v>508.704502527487</v>
       </c>
       <c r="Q12" t="n">
-        <v>344.8089560992021</v>
+        <v>340.0554881152093</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>165.4008208410838</v>
       </c>
       <c r="S12" t="n">
-        <v>50.17406298378641</v>
+        <v>49.48237328779241</v>
       </c>
       <c r="T12" t="n">
-        <v>10.88783090486416</v>
+        <v>10.73773342419864</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1777121475222661</v>
+        <v>0.1752622430500323</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.264616000119805</v>
+        <v>2.23339645241899</v>
       </c>
       <c r="H13" t="n">
-        <v>20.13449498288337</v>
+        <v>19.85692482241613</v>
       </c>
       <c r="I13" t="n">
-        <v>68.10317934905743</v>
+        <v>67.16432240547292</v>
       </c>
       <c r="J13" t="n">
-        <v>160.1083512084702</v>
+        <v>157.9011291860226</v>
       </c>
       <c r="K13" t="n">
-        <v>263.1072043775555</v>
+        <v>259.4800605628608</v>
       </c>
       <c r="L13" t="n">
-        <v>336.6866369632663</v>
+        <v>332.0451416623652</v>
       </c>
       <c r="M13" t="n">
-        <v>354.9888517278708</v>
+        <v>350.0950457187331</v>
       </c>
       <c r="N13" t="n">
-        <v>346.5480102728791</v>
+        <v>341.7705680324444</v>
       </c>
       <c r="O13" t="n">
-        <v>320.0931779078431</v>
+        <v>315.6804367473679</v>
       </c>
       <c r="P13" t="n">
-        <v>273.8950115053988</v>
+        <v>270.1191491180203</v>
       </c>
       <c r="Q13" t="n">
-        <v>189.6307088827593</v>
+        <v>187.0164974839211</v>
       </c>
       <c r="R13" t="n">
-        <v>101.8253703326596</v>
+        <v>100.4216259424029</v>
       </c>
       <c r="S13" t="n">
-        <v>39.46608065663332</v>
+        <v>38.92200908442911</v>
       </c>
       <c r="T13" t="n">
-        <v>9.676086545966436</v>
+        <v>9.542693933062955</v>
       </c>
       <c r="U13" t="n">
-        <v>0.123524509097444</v>
+        <v>0.1218216246773996</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N15" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O15" t="n">
-        <v>555.1640776830025</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171346</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879732</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K17" t="n">
-        <v>653.614989517164</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869755</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654302</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117595</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565681</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P17" t="n">
-        <v>738.898440582963</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972014</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581562</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031964</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533502</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781105</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155586</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N18" t="n">
-        <v>616.0816594412355</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578287</v>
+        <v>577.6550422513133</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892353</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486999</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216616</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051425</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754555</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696484</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246178</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381986</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227501</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925538</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J21" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>616.0816594412372</v>
+        <v>591.0665301174805</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q21" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,34 +32780,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J24" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O24" t="n">
-        <v>584.3932527497839</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33032,13 +33032,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879669</v>
+        <v>176.0878742921115</v>
       </c>
       <c r="N27" t="n">
-        <v>573.1387203886727</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
@@ -33269,22 +33269,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>591.0665301174799</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33509,13 +33509,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33743,19 +33743,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>616.0816594412372</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33980,22 +33980,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N39" t="n">
-        <v>681.029754709834</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34217,19 +34217,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>251.9869679943067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34366,7 @@
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383711</v>
       </c>
       <c r="K44" t="n">
         <v>653.6149895171636</v>
@@ -34381,7 +34381,7 @@
         <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565669</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
         <v>738.8984405829625</v>
@@ -34445,22 +34445,22 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155584</v>
+        <v>357.5145194463138</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>548.1235910649156</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="K5" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>13.99145537648747</v>
       </c>
       <c r="N5" t="n">
+        <v>13.99145537648747</v>
+      </c>
+      <c r="O5" t="n">
         <v>13.42614404814455</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35094,16 +35094,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="M7" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>13.42614404814455</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>69.56693840343073</v>
+        <v>44.617834503438</v>
       </c>
       <c r="L8" t="n">
-        <v>62.12228738602534</v>
+        <v>24.52898057302082</v>
       </c>
       <c r="M8" t="n">
-        <v>49.79500702712474</v>
+        <v>59.28254786767653</v>
       </c>
       <c r="N8" t="n">
-        <v>55.26115480377229</v>
+        <v>64.90221397404281</v>
       </c>
       <c r="O8" t="n">
-        <v>38.71158060333224</v>
+        <v>47.81535938956748</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4.668274762409396</v>
       </c>
       <c r="L9" t="n">
-        <v>46.79044561126696</v>
+        <v>53.06751713021407</v>
       </c>
       <c r="M9" t="n">
-        <v>69.56693840343073</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="N9" t="n">
-        <v>69.56693840343073</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="O9" t="n">
-        <v>60.50244746532695</v>
+        <v>67.38078902048954</v>
       </c>
       <c r="P9" t="n">
-        <v>29.03019834022996</v>
+        <v>34.55067384355124</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>63.69180412076213</v>
       </c>
       <c r="L10" t="n">
-        <v>66.75615301339309</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="M10" t="n">
-        <v>69.56693840343073</v>
+        <v>14.49576908482093</v>
       </c>
       <c r="N10" t="n">
-        <v>69.56693840343073</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="O10" t="n">
-        <v>69.56693840343073</v>
+        <v>81.47968155108128</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>247.4454097410257</v>
+        <v>241.5383133394909</v>
       </c>
       <c r="K11" t="n">
-        <v>422.1075541277785</v>
+        <v>413.2543478786529</v>
       </c>
       <c r="L11" t="n">
-        <v>560.9362531258841</v>
+        <v>549.9530679197962</v>
       </c>
       <c r="M11" t="n">
-        <v>656.1389931991591</v>
+        <v>643.9180834241581</v>
       </c>
       <c r="N11" t="n">
-        <v>671.416420585191</v>
+        <v>658.9977637134627</v>
       </c>
       <c r="O11" t="n">
-        <v>620.5295259744333</v>
+        <v>608.8029404421093</v>
       </c>
       <c r="P11" t="n">
-        <v>494.7580981440787</v>
+        <v>484.7497286963849</v>
       </c>
       <c r="Q11" t="n">
-        <v>322.8833870029993</v>
+        <v>315.367518356554</v>
       </c>
       <c r="R11" t="n">
-        <v>101.5468796867932</v>
+        <v>97.17495498294886</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3688646518088</v>
+        <v>124.8506385027163</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3471033807922</v>
+        <v>292.3338945171769</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>439.8694430329156</v>
       </c>
       <c r="M12" t="n">
-        <v>542.2946835687355</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>571.2017969781903</v>
+        <v>558.7017130350901</v>
       </c>
       <c r="O12" t="n">
-        <v>372.0595052414318</v>
+        <v>491.2338154712288</v>
       </c>
       <c r="P12" t="n">
-        <v>381.8410245072977</v>
+        <v>374.7300951131568</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.8271820131806</v>
+        <v>200.0737140291878</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>19.72131687711988</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>66.74917109179742</v>
+        <v>64.54194906934981</v>
       </c>
       <c r="K13" t="n">
-        <v>240.8377125516726</v>
+        <v>237.2105687369779</v>
       </c>
       <c r="L13" t="n">
-        <v>364.2766622235824</v>
+        <v>359.6351669226813</v>
       </c>
       <c r="M13" t="n">
-        <v>394.5727286897114</v>
+        <v>389.6789226805737</v>
       </c>
       <c r="N13" t="n">
-        <v>390.6801826521078</v>
+        <v>385.902740411673</v>
       </c>
       <c r="O13" t="n">
-        <v>344.6783058218828</v>
+        <v>340.2655646614076</v>
       </c>
       <c r="P13" t="n">
-        <v>271.1735707702923</v>
+        <v>267.3977083829138</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.4686656310649</v>
+        <v>100.8544542322267</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O15" t="n">
-        <v>412.567833238558</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714183</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892838</v>
+        <v>245.5154777892837</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295209</v>
+        <v>370.2625912295208</v>
       </c>
       <c r="M16" t="n">
-        <v>400.8840515372959</v>
+        <v>400.8840515372958</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386572</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119442</v>
+        <v>106.8400972119441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721834</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169883</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381575</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151692</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348814</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276934</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227519</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R17" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503682</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356844</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N18" t="n">
-        <v>484.7399473579022</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133842</v>
+        <v>435.0587978068688</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749051</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276947</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>484.7399473579039</v>
+        <v>459.7248180341472</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895088</v>
       </c>
       <c r="N22" t="n">
         <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908721</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36358,28 +36358,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348821</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O24" t="n">
-        <v>441.7970083053394</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895088</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010907</v>
@@ -36531,7 +36531,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.653334055307</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36680,13 +36680,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>33.95384037009313</v>
       </c>
       <c r="N27" t="n">
-        <v>441.7970083053394</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>459.7248180341467</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>484.7399473579039</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37561,7 +37561,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227526</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37628,22 +37628,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N39" t="n">
-        <v>549.6880426265008</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37865,19 +37865,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.0051939082852</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K44" t="n">
         <v>433.5251384721831</v>
@@ -38029,7 +38029,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348801</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
         <v>507.665444827693</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356842</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>416.7818789815822</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
